--- a/資料/設計/フローチャート/タイミングチャート/タイミングチャート_v0.1.xlsx
+++ b/資料/設計/フローチャート/タイミングチャート/タイミングチャート_v0.1.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\タイミングチャート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\フローチャート\タイミングチャート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAEF6594-878A-4460-8E40-F810E0D0D617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE17CAED-5992-4D5F-9389-13AB202FBAA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6450" yWindow="7950" windowWidth="14400" windowHeight="15450" activeTab="1" xr2:uid="{36B7796C-48A6-4D22-B05E-E92FFE5B95E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{36B7796C-48A6-4D22-B05E-E92FFE5B95E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="SWを押したとき" sheetId="1" r:id="rId1"/>
-    <sheet name="SWを離したとき" sheetId="2" r:id="rId2"/>
+    <sheet name="SWを押したとき(成功)" sheetId="1" r:id="rId1"/>
+    <sheet name="SWを離したとき(成功)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="変更履歴" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>タイミングチャート</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +173,27 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(立ち下がり)</t>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +465,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -471,7 +497,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -530,7 +556,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -589,7 +615,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>239590</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -789,6 +815,188 @@
         <a:xfrm>
           <a:off x="2131452" y="472966"/>
           <a:ext cx="0" cy="4250120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B227355E-7384-41E3-85F6-1887CD415809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="476250"/>
+          <a:ext cx="0" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8002224-159A-41B0-BEC5-E3D81BDC3415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681529" y="476250"/>
+          <a:ext cx="0" cy="4238625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>239590</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>239590</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508A95C-29AC-44A5-979F-9502559B71E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2144590" y="476250"/>
+          <a:ext cx="0" cy="4238625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1120,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EC0981-C2BA-4735-812F-BC90E93EE593}">
-  <dimension ref="A1:BQ19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:T12"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1213,82 +1421,108 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
         <v>5</v>
       </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J13" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="16" t="s">
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA6CD1E-7BC2-4C1E-9DF2-19D841545FB1}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1516,4 +1750,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914FEADB-20E4-49B1-8EA5-F3D3A8824263}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="26" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917C82E9-8CED-4C95-992A-7F08ABA41565}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="18">
+        <v>44026</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>